--- a/LeetCode1-300/LeetCode1-300.xlsx
+++ b/LeetCode1-300/LeetCode1-300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\LeetCode 101：和你一起你轻松刷题\LeetCode1-300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F301E-6AE0-4ADD-AED4-DE5450578C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15451EF8-48DD-4488-981E-7D4A983FDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{4A132E47-3C93-46B5-A3C4-5EBA1D570D7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Array, Hash Table, N-Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,17 +322,10 @@
     <t>53. Maximum Subarray</t>
   </si>
   <si>
-    <t>最大连续子数组之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Two Sum</t>
-  </si>
-  <si>
     <t>7. Reverse Integer</t>
   </si>
   <si>
@@ -382,20 +375,12 @@
     <t>69. Sqrt(x)</t>
   </si>
   <si>
-    <t>求给定值的正整数平方根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>69. Sqrt(x).md</t>
   </si>
   <si>
     <t>70. Climbing Stairs</t>
   </si>
   <si>
-    <t>爬楼梯一步或两步，有多少不同的方式爬到楼顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>70. Climbing Stairs.md</t>
   </si>
   <si>
@@ -403,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断树相同对称平衡，DFS和BFS遍历树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,12 +402,348 @@
     <t>118. Pascal's Triangle</t>
   </si>
   <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle.md</t>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">121/122 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票买卖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock.md</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome.md</t>
+  </si>
+  <si>
+    <t>136. Single Number.md</t>
+  </si>
+  <si>
+    <t>HashSet, Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快慢指针，相遇后重置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再一起走直到相遇</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155. Min Stack</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以返回最小元素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design, Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存元素，一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顶存最小值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">141/142/160 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链表环，两个链表相交点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/167. Two Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大连续子数组之和</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求给定值的正整数平方根</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爬楼梯一步或两步，有多少不同的方式爬到楼顶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断树相同对称平衡，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遍历树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>买卖股票，在数组中找到最大差值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断字符串是否为回文</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组中只有一个数没有重复数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判断链表是否有环和环的入口，找两个相交的点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -436,16 +753,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>N</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -455,16 +772,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Pascal's </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -474,16 +791,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>N</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF263238"/>
         <rFont val="宋体"/>
         <family val="2"/>
@@ -494,46 +811,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118. Pascal's Triangle.md</t>
-  </si>
-  <si>
-    <t>DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖股票，在数组中找到最大差值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">121/122 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股票买卖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121. Best Time to Buy and Sell Stock.md</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给定一个正整数返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>式的字符串</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168/171. Excel Sheet Column Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,28 +923,21 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF263238"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF263238"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF263238"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -653,11 +968,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -675,12 +987,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,20 +996,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,364 +1326,434 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
@@ -1400,7 +1773,7 @@
     <hyperlink ref="E9" r:id="rId10" xr:uid="{F5005A9B-D66B-4183-8EFA-E1899C090F00}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{8591D6D4-BC7A-404B-A218-774B6B2565A6}"/>
     <hyperlink ref="A11" r:id="rId12" xr:uid="{5718B284-793A-4B58-B16B-5EA269A10710}"/>
-    <hyperlink ref="A2" r:id="rId13" xr:uid="{66ADA23A-EEC0-417E-BB29-F5E892238E60}"/>
+    <hyperlink ref="A2" r:id="rId13" display="1. Two Sum" xr:uid="{66ADA23A-EEC0-417E-BB29-F5E892238E60}"/>
     <hyperlink ref="A12" r:id="rId14" xr:uid="{5F9565F1-3463-4DFD-891E-03F1F7653C8D}"/>
     <hyperlink ref="A13" r:id="rId15" xr:uid="{0E143C9D-001F-4457-A8C9-322FE4981BD2}"/>
     <hyperlink ref="A3" r:id="rId16" xr:uid="{7977C004-3D02-4E99-8629-3F1AD8CAD91A}"/>
@@ -1421,8 +1794,14 @@
     <hyperlink ref="A17" r:id="rId31" xr:uid="{963B3F81-4518-4D74-82B5-2A5F6CE02400}"/>
     <hyperlink ref="E17" r:id="rId32" xr:uid="{69DA9854-D1C2-4CCA-BFC3-4C642FFFFAA7}"/>
     <hyperlink ref="E18" r:id="rId33" xr:uid="{D15692AE-2EE6-4D7A-83EB-4E57C68F6619}"/>
+    <hyperlink ref="A19" r:id="rId34" xr:uid="{1FF2D0DF-2ECB-4993-88CC-2C2DA53C5058}"/>
+    <hyperlink ref="A20" r:id="rId35" xr:uid="{9698D476-38CB-4BF8-8E4E-77771B22FFB7}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{03B2B8EC-6E5C-4247-A5DB-2C452CE09669}"/>
+    <hyperlink ref="E20" r:id="rId37" xr:uid="{473A5174-537B-49AF-8BFE-87FF0E6432FE}"/>
+    <hyperlink ref="A22" r:id="rId38" xr:uid="{FCD906F0-8012-479E-B9DA-00BF6CB23622}"/>
+    <hyperlink ref="A23" r:id="rId39" display="168. Excel Sheet Column Title" xr:uid="{BA69FBA0-E204-4A3B-9888-D9B46E29AA9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/LeetCode1-300/LeetCode1-300.xlsx
+++ b/LeetCode1-300/LeetCode1-300.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\LeetCode 101：和你一起你轻松刷题\LeetCode1-300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15451EF8-48DD-4488-981E-7D4A983FDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BCA27-527E-4426-8C66-90CAEC03D72E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{4A132E47-3C93-46B5-A3C4-5EBA1D570D7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Array, Hash Table, N-Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String, Substring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -849,6 +845,82 @@
   <si>
     <t>168/171. Excel Sheet Column Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <t>把两个链表的数相加并以链表的形式返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Add Two Numbers.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>找字符串中最长无重复字符的子串长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters.md</t>
+  </si>
+  <si>
+    <t>Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring,Sliding Window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>给定数组元素表容器的高度，求接最多雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array, Two Pointers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. Container With Most Water.md</t>
+  </si>
+  <si>
+    <t>15/16/18 3Sum, 3Sum Closest, 4Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找三数之和等于0的组合                       三数之和最接近给定值的结果                   找四数之和等于给定值的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..\3. Two Pointers\N-Sum.pdf</t>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>找出数字对应字母的所有组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. Letter Combinations of a Phone Number.md</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1079,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,18 +1404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF536B45-7DF0-4D00-B692-BF2644CA51A4}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1359,7 +1440,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -1376,7 +1457,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1393,7 +1474,7 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -1402,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1410,10 +1491,10 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1422,117 +1503,117 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -1546,7 +1627,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1563,172 +1644,172 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,11 +1830,90 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
@@ -1800,8 +1960,17 @@
     <hyperlink ref="E20" r:id="rId37" xr:uid="{473A5174-537B-49AF-8BFE-87FF0E6432FE}"/>
     <hyperlink ref="A22" r:id="rId38" xr:uid="{FCD906F0-8012-479E-B9DA-00BF6CB23622}"/>
     <hyperlink ref="A23" r:id="rId39" display="168. Excel Sheet Column Title" xr:uid="{BA69FBA0-E204-4A3B-9888-D9B46E29AA9C}"/>
+    <hyperlink ref="A30" r:id="rId40" xr:uid="{A3074AF9-2FC5-4D28-A959-DEF8C7E4C068}"/>
+    <hyperlink ref="E30" r:id="rId41" xr:uid="{4F3F587F-250F-42E0-A880-AD286764A00A}"/>
+    <hyperlink ref="A31" r:id="rId42" xr:uid="{1E7DA7EE-B4C4-4F0E-9220-3C0D2206A97F}"/>
+    <hyperlink ref="E31" r:id="rId43" xr:uid="{64212F4D-5AA0-466E-A3D9-EA80B9D90C68}"/>
+    <hyperlink ref="A32" r:id="rId44" xr:uid="{EE98B5D3-1797-415D-B488-26084BDC8C46}"/>
+    <hyperlink ref="E32" r:id="rId45" xr:uid="{94303FB1-1105-4512-8FA6-840A2CDDCF0F}"/>
+    <hyperlink ref="E33" r:id="rId46" xr:uid="{53CC891F-63AC-4341-B47A-F05990BBDDF3}"/>
+    <hyperlink ref="A34" r:id="rId47" xr:uid="{FA61A7E8-E0FB-4F6E-9AB0-0F1CD5C786CD}"/>
+    <hyperlink ref="E34" r:id="rId48" xr:uid="{830572AC-BD14-49D5-A240-64308D361B1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/LeetCode1-300/LeetCode1-300.xlsx
+++ b/LeetCode1-300/LeetCode1-300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\LeetCode 101：和你一起你轻松刷题\LeetCode1-300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689BCA27-527E-4426-8C66-90CAEC03D72E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F3AF1-2BBB-46FB-A710-2992336AEBEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{4A132E47-3C93-46B5-A3C4-5EBA1D570D7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
   <si>
     <t>Array, Hash Table, N-Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,13 +921,347 @@
   </si>
   <si>
     <t>17. Letter Combinations of a Phone Number.md</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链表删除倒数第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快慢指针，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步后再一起移动快慢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>找出N对括号的所有组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. Generate Parentheses.md</t>
+  </si>
+  <si>
+    <t>24. Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>把链表节点两两交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dummy.next=head, prev=dummy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并遍历链表，两两交换指针所指对象并移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prev</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. Next Permutation.md</t>
+  </si>
+  <si>
+    <t>lexicographically重新排列数组为下一个更大的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array.md</t>
+  </si>
+  <si>
+    <t>搜索有序的旋转的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>有序数组里搜索目标值的第一个后最后一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个二分法，起点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mid &gt;= target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，终点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mid &lt;= target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>判断给定的图（二维数组）是否为有效的数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. Valid Sudoku.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table, Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组中找所有组合之和等于给定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39&amp;40 Combination Sum I&amp;II.md</t>
+  </si>
+  <si>
+    <t>43. Multiply Strings</t>
+  </si>
+  <si>
+    <t>两个整数字符串相乘以字符串输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String, Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. Multiply Strings.md</t>
+  </si>
+  <si>
+    <t>46/47. Permutations I/II</t>
+  </si>
+  <si>
+    <t>39/40. Combination Sum I/II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出数组的所有排列可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46&amp;47. Permutations I&amp;II.md</t>
+  </si>
+  <si>
+    <t>49. Group Anagrams</t>
+  </si>
+  <si>
+    <t>Hash Table, String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把字符串数组中的单词按相同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打包整理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. Group Anagrams.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1348,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1040,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1428,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1404,19 +1751,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF536B45-7DF0-4D00-B692-BF2644CA51A4}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1913,6 +2260,193 @@
       </c>
       <c r="E34" s="13" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1969,8 +2503,27 @@
     <hyperlink ref="E33" r:id="rId46" xr:uid="{53CC891F-63AC-4341-B47A-F05990BBDDF3}"/>
     <hyperlink ref="A34" r:id="rId47" xr:uid="{FA61A7E8-E0FB-4F6E-9AB0-0F1CD5C786CD}"/>
     <hyperlink ref="E34" r:id="rId48" xr:uid="{830572AC-BD14-49D5-A240-64308D361B1C}"/>
+    <hyperlink ref="A35" r:id="rId49" xr:uid="{E604B4E6-8E36-40E4-9264-94C4504BE2CE}"/>
+    <hyperlink ref="A36" r:id="rId50" xr:uid="{4235DB29-1121-4058-AA5D-92B056D65D36}"/>
+    <hyperlink ref="E36" r:id="rId51" xr:uid="{437617D8-1426-44EE-A675-91CC2A5B2163}"/>
+    <hyperlink ref="A37" r:id="rId52" xr:uid="{A28AEFFF-4F9A-4337-8B0E-73C358EDAAB0}"/>
+    <hyperlink ref="A38" r:id="rId53" xr:uid="{369D3EF5-43AF-45E2-A2F1-1BD830B72F47}"/>
+    <hyperlink ref="E38" r:id="rId54" xr:uid="{946DA50A-5245-4F72-A16B-9B71998AF537}"/>
+    <hyperlink ref="A39" r:id="rId55" xr:uid="{752E6215-668E-49CA-ACC4-80C0035CCD2C}"/>
+    <hyperlink ref="E39" r:id="rId56" xr:uid="{500474E4-4500-41F8-9C88-6E9EF03339A4}"/>
+    <hyperlink ref="A40" r:id="rId57" xr:uid="{408222C4-3F76-4A52-9AD2-41C519A9255D}"/>
+    <hyperlink ref="A41" r:id="rId58" xr:uid="{F8ED45CE-7E7C-4683-AAD4-5353CB831896}"/>
+    <hyperlink ref="E41" r:id="rId59" xr:uid="{43173D4C-7D2F-429A-B2F7-CEAA29C8D78A}"/>
+    <hyperlink ref="A42" r:id="rId60" display="39. Combination Sum" xr:uid="{A0BEC2DF-4FBF-4F4F-8063-0B53C6E81D93}"/>
+    <hyperlink ref="E42" r:id="rId61" xr:uid="{013FA686-EF26-425C-ADD1-CBB28826BA68}"/>
+    <hyperlink ref="A43" r:id="rId62" xr:uid="{3F77321F-420F-482D-A4C7-B4D6CF733B70}"/>
+    <hyperlink ref="E43" r:id="rId63" xr:uid="{3A352493-0114-4138-9F0D-865DDD36203E}"/>
+    <hyperlink ref="A44" r:id="rId64" xr:uid="{9762597A-27AD-4427-865F-257F88A255AE}"/>
+    <hyperlink ref="E44" r:id="rId65" xr:uid="{CECFD696-F28E-4E94-B24F-C5001A63C55F}"/>
+    <hyperlink ref="A45" r:id="rId66" xr:uid="{9E08BE03-DD28-4243-971E-305C2931AE3B}"/>
+    <hyperlink ref="E45" r:id="rId67" xr:uid="{534F9EFA-1FC8-492B-8A9E-B44997CF6FD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
--- a/LeetCode1-300/LeetCode1-300.xlsx
+++ b/LeetCode1-300/LeetCode1-300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\LeetCode 101：和你一起你轻松刷题\LeetCode1-300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F3AF1-2BBB-46FB-A710-2992336AEBEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0705B713-F7F8-41D9-B031-4BEF3DC9AD04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{4A132E47-3C93-46B5-A3C4-5EBA1D570D7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="173">
   <si>
     <t>Array, Hash Table, N-Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1255,6 +1255,214 @@
   </si>
   <si>
     <t>49. Group Anagrams.md</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>给一个数组元素是跳跃步数，判断能否跳跃到尾部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. Jump Game.md</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. Merge Intervals.md</t>
+  </si>
+  <si>
+    <t>57. Insert Interval</t>
+  </si>
+  <si>
+    <t>插入一个新的区间到给定的区间里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nx2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的二维数组为开始结束时间，把重叠的区间合并</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57. Insert Interval.md</t>
+  </si>
+  <si>
+    <t>61. Rotate List</t>
+  </si>
+  <si>
+    <t>向右旋转链表K步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61. Rotate List.md</t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
+  </si>
+  <si>
+    <t>把绝对路径的字符串化简并返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71. Simplify Path.md</t>
+  </si>
+  <si>
+    <t>75. Sort Colors</t>
+  </si>
+  <si>
+    <t>把数组里代表三色的0,1,2进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort, Two Pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. Sort Colors.md</t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数由1到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组成的所有组合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准回溯模板，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>index=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i=index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dfs(i+1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1751,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF536B45-7DF0-4D00-B692-BF2644CA51A4}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2447,6 +2655,125 @@
       </c>
       <c r="E45" s="13" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2522,8 +2849,21 @@
     <hyperlink ref="E44" r:id="rId65" xr:uid="{CECFD696-F28E-4E94-B24F-C5001A63C55F}"/>
     <hyperlink ref="A45" r:id="rId66" xr:uid="{9E08BE03-DD28-4243-971E-305C2931AE3B}"/>
     <hyperlink ref="E45" r:id="rId67" xr:uid="{534F9EFA-1FC8-492B-8A9E-B44997CF6FD7}"/>
+    <hyperlink ref="A46" r:id="rId68" xr:uid="{42A19568-B503-4086-BD8B-1E8BDF8AAB7C}"/>
+    <hyperlink ref="E46" r:id="rId69" xr:uid="{4A980270-E703-4DA0-9C40-CCDA2EE9633C}"/>
+    <hyperlink ref="A47" r:id="rId70" xr:uid="{13808800-054F-4216-A3B2-BA9C9B78A121}"/>
+    <hyperlink ref="E47" r:id="rId71" xr:uid="{C030324B-C884-43A0-B89D-88808D246712}"/>
+    <hyperlink ref="A48" r:id="rId72" xr:uid="{275A9E66-0735-4D75-99E8-EBE4F6FD8F0A}"/>
+    <hyperlink ref="E48" r:id="rId73" xr:uid="{4F0A4C66-AD80-45A3-92D6-0C886A44E11F}"/>
+    <hyperlink ref="A49" r:id="rId74" xr:uid="{380879D8-3C9C-4954-BAE0-04B09CB585B7}"/>
+    <hyperlink ref="E49" r:id="rId75" xr:uid="{62153CC0-6595-4D4F-AC98-DC46418FC647}"/>
+    <hyperlink ref="A50" r:id="rId76" xr:uid="{FC850BA3-DE20-47DB-B6CE-1DDB8A505195}"/>
+    <hyperlink ref="E50" r:id="rId77" xr:uid="{1A680B7F-C033-45D1-8ADF-E05803D40862}"/>
+    <hyperlink ref="A51" r:id="rId78" xr:uid="{E897FDAA-84E4-42F3-AEFD-E3FCE2664FE2}"/>
+    <hyperlink ref="E51" r:id="rId79" xr:uid="{BDF37E72-C7D8-4FCD-8A4A-84F3CDD70A3D}"/>
+    <hyperlink ref="A52" r:id="rId80" xr:uid="{F4D12AC8-D259-4787-9093-9ECA97E3E56A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/LeetCode1-300/LeetCode1-300.xlsx
+++ b/LeetCode1-300/LeetCode1-300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\LeetCode 101：和你一起你轻松刷题\LeetCode1-300\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3CDA0-443F-4A2C-B0B8-575B64FAF787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72329B0-8AAD-438C-AD6F-F122CD579B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{4A132E47-3C93-46B5-A3C4-5EBA1D570D7E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="232">
   <si>
     <t>Array, Hash Table, N-Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,13 +2036,128 @@
   </si>
   <si>
     <t>62. Unique Paths.md</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>二维数组只能右移和下移，从左上角走到右下角的最短路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum.md</t>
+  </si>
+  <si>
+    <t>79. Word Search</t>
+  </si>
+  <si>
+    <t>二维字符组里搜索是否含有给定字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79. Word Search.md</t>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>把二叉树铺平，只用right指针来连接成链表形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List.md</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组里出现频率最高的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个元素</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap, HashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements.md</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>输出给定数组里除自身以外的元素乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self.md</t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>二维矩阵把特定的游戏规则的1和0转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289. Game of Life.md</t>
+  </si>
+  <si>
+    <t>74./240 Search a 2D Matrix I/II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维排序矩阵中搜索目标值是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74&amp;240. Search a 2D Matrix I&amp;II.md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2136,6 +2251,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2162,7 +2284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2212,6 +2334,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2529,16 +2654,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF536B45-7DF0-4D00-B692-BF2644CA51A4}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="57.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="58.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="30.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="49.625" style="6" customWidth="1"/>
@@ -3500,6 +3625,125 @@
       </c>
       <c r="E61" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3607,8 +3851,22 @@
     <hyperlink ref="E60" r:id="rId97" xr:uid="{EC8E173D-220B-4DF4-8F2B-B2BEC54198BA}"/>
     <hyperlink ref="A61" r:id="rId98" xr:uid="{47D16D90-207D-49F4-AA71-4779C91F2441}"/>
     <hyperlink ref="E61" r:id="rId99" xr:uid="{9A38FB75-AFDE-413D-AD0A-EA3745EABAF6}"/>
+    <hyperlink ref="A62" r:id="rId100" xr:uid="{87A97C39-E45B-4C29-8B90-538380FD7F87}"/>
+    <hyperlink ref="E62" r:id="rId101" xr:uid="{C7A7F460-9FF6-446E-A9F9-C8EC825AA91E}"/>
+    <hyperlink ref="A63" r:id="rId102" xr:uid="{2953A582-C114-44CB-B266-22D9CDD838DE}"/>
+    <hyperlink ref="E63" r:id="rId103" xr:uid="{E7581211-9F64-4773-BBCA-969B7D70187D}"/>
+    <hyperlink ref="A64" r:id="rId104" xr:uid="{61DBCD24-576C-4F59-9016-2C95F5760027}"/>
+    <hyperlink ref="E64" r:id="rId105" xr:uid="{7EF1B553-D457-4FAD-9B98-A32B8C2911C6}"/>
+    <hyperlink ref="A65" r:id="rId106" xr:uid="{ED8E2A23-956E-4ADB-B3E6-23A4978949AD}"/>
+    <hyperlink ref="E65" r:id="rId107" xr:uid="{C51331C4-DD1F-41BE-9493-49439CE76505}"/>
+    <hyperlink ref="A66" r:id="rId108" xr:uid="{23559834-8BB5-4F16-967F-9220949F0E4D}"/>
+    <hyperlink ref="E66" r:id="rId109" xr:uid="{DDA1EBAB-E978-4FFA-966A-A977B834B898}"/>
+    <hyperlink ref="A67" r:id="rId110" xr:uid="{905303F7-E83A-4836-A940-320C4D978179}"/>
+    <hyperlink ref="E67" r:id="rId111" xr:uid="{7AD421D6-A567-4A0E-BC5D-E446243DA39B}"/>
+    <hyperlink ref="A68" r:id="rId112" display="74. Search a 2D Matrix" xr:uid="{984CFF05-9C2D-444D-9E6B-BD55A57A9345}"/>
+    <hyperlink ref="E68" r:id="rId113" xr:uid="{CDF77CA9-149D-498E-A80C-B100EE7792E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>